--- a/thematic_report_2020/land_cover/resa_2020_land_cover_classes.xlsx
+++ b/thematic_report_2020/land_cover/resa_2020_land_cover_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Heleen_d_W\ICP_Waters\python_2020\icpw2\thematic_report_2020\land_cover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C27A7-187F-4808-AC96-BE72751FF197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2951BE-9721-4C74-86B4-EC73E7776E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{529016E4-41E3-4B94-B1AF-6596D507C3A2}"/>
   </bookViews>
@@ -129,12 +129,6 @@
     <t>As defined in Corine, intermediate level 3.2</t>
   </si>
   <si>
-    <t>Transitional woodland/scrub</t>
-  </si>
-  <si>
-    <t>“Transitional woodland/scrub” in Corine (324)</t>
-  </si>
-  <si>
     <t>Urban</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Transitional woodland/shrub</t>
+  </si>
+  <si>
+    <t>“Transitional woodland/shrub” in Corine (324)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,13 +547,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -821,16 +821,16 @@
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -841,16 +841,16 @@
         <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -861,16 +861,16 @@
         <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -881,16 +881,16 @@
         <v>340</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>2</v>
